--- a/data_original/DocenteAsignaturas.xlsx
+++ b/data_original/DocenteAsignaturas.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eaorozco\OneDrive - Universidad Autonoma de Occidente\Escritorio\Desercion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaimereinoso/DESARROLLO/UAOPiloto/data_original/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1DD79F-AC94-9046-9E9A-5269BD97591A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
-    <sheet name="Exportar Hoja de Trabajo" sheetId="1" r:id="rId2"/>
-    <sheet name="SQL" sheetId="2" r:id="rId3"/>
+    <sheet name="Exportar Hoja de Trabajo" sheetId="1" r:id="rId1"/>
+    <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Exportar Hoja de Trabajo'!$A$1:$G$743</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exportar Hoja de Trabajo'!$A$1:$G$743</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -2310,7 +2310,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2621,43 +2621,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2680,7 +2666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>201801</v>
       </c>
@@ -2703,7 +2689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>201801</v>
       </c>
@@ -2726,7 +2712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>201801</v>
       </c>
@@ -2749,7 +2735,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>201801</v>
       </c>
@@ -2772,7 +2758,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>201801</v>
       </c>
@@ -2795,7 +2781,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>201801</v>
       </c>
@@ -2818,7 +2804,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>201801</v>
       </c>
@@ -2841,7 +2827,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>201801</v>
       </c>
@@ -2864,7 +2850,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>201801</v>
       </c>
@@ -2887,7 +2873,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>201801</v>
       </c>
@@ -2910,7 +2896,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>201801</v>
       </c>
@@ -2933,7 +2919,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>201801</v>
       </c>
@@ -2956,7 +2942,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>201801</v>
       </c>
@@ -2979,7 +2965,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>201801</v>
       </c>
@@ -3002,7 +2988,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>201801</v>
       </c>
@@ -3025,7 +3011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>201801</v>
       </c>
@@ -3048,7 +3034,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>201801</v>
       </c>
@@ -3071,7 +3057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>201801</v>
       </c>
@@ -3094,7 +3080,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>201801</v>
       </c>
@@ -3117,7 +3103,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>201801</v>
       </c>
@@ -3140,7 +3126,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>201801</v>
       </c>
@@ -3163,7 +3149,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>201801</v>
       </c>
@@ -3186,7 +3172,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>201801</v>
       </c>
@@ -3209,7 +3195,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>201801</v>
       </c>
@@ -3232,7 +3218,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>201801</v>
       </c>
@@ -3255,7 +3241,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>201801</v>
       </c>
@@ -3278,7 +3264,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>201801</v>
       </c>
@@ -3301,7 +3287,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>201801</v>
       </c>
@@ -3324,7 +3310,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>201801</v>
       </c>
@@ -3347,7 +3333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>201801</v>
       </c>
@@ -3370,7 +3356,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>201801</v>
       </c>
@@ -3393,7 +3379,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>201801</v>
       </c>
@@ -3416,7 +3402,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>201801</v>
       </c>
@@ -3439,7 +3425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>201801</v>
       </c>
@@ -3462,7 +3448,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>201801</v>
       </c>
@@ -3485,7 +3471,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>201801</v>
       </c>
@@ -3508,7 +3494,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>201801</v>
       </c>
@@ -3531,7 +3517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>201801</v>
       </c>
@@ -3554,7 +3540,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>201801</v>
       </c>
@@ -3577,7 +3563,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>201801</v>
       </c>
@@ -3600,7 +3586,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>201801</v>
       </c>
@@ -3623,7 +3609,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>201801</v>
       </c>
@@ -3646,7 +3632,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>201801</v>
       </c>
@@ -3669,7 +3655,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>201801</v>
       </c>
@@ -3692,7 +3678,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>201801</v>
       </c>
@@ -3715,7 +3701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>201803</v>
       </c>
@@ -3738,7 +3724,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>201803</v>
       </c>
@@ -3761,7 +3747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>201803</v>
       </c>
@@ -3784,7 +3770,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>201803</v>
       </c>
@@ -3807,7 +3793,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>201803</v>
       </c>
@@ -3830,7 +3816,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>201803</v>
       </c>
@@ -3853,7 +3839,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>201803</v>
       </c>
@@ -3876,7 +3862,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>201803</v>
       </c>
@@ -3899,7 +3885,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>201803</v>
       </c>
@@ -3922,7 +3908,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>201803</v>
       </c>
@@ -3945,7 +3931,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>201803</v>
       </c>
@@ -3968,7 +3954,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>201803</v>
       </c>
@@ -3991,7 +3977,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>201803</v>
       </c>
@@ -4014,7 +4000,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>201803</v>
       </c>
@@ -4037,7 +4023,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>201803</v>
       </c>
@@ -4060,7 +4046,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>201803</v>
       </c>
@@ -4083,7 +4069,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>201803</v>
       </c>
@@ -4106,7 +4092,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>201803</v>
       </c>
@@ -4129,7 +4115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>201803</v>
       </c>
@@ -4152,7 +4138,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>201803</v>
       </c>
@@ -4175,7 +4161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>201803</v>
       </c>
@@ -4198,7 +4184,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>201803</v>
       </c>
@@ -4221,7 +4207,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>201803</v>
       </c>
@@ -4244,7 +4230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>201803</v>
       </c>
@@ -4267,7 +4253,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>201803</v>
       </c>
@@ -4290,7 +4276,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>201803</v>
       </c>
@@ -4313,7 +4299,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>201803</v>
       </c>
@@ -4336,7 +4322,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>201803</v>
       </c>
@@ -4359,7 +4345,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>201803</v>
       </c>
@@ -4382,7 +4368,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>201803</v>
       </c>
@@ -4405,7 +4391,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>201803</v>
       </c>
@@ -4428,7 +4414,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>201803</v>
       </c>
@@ -4451,7 +4437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>201803</v>
       </c>
@@ -4474,7 +4460,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>201803</v>
       </c>
@@ -4497,7 +4483,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>201803</v>
       </c>
@@ -4520,7 +4506,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>201803</v>
       </c>
@@ -4543,7 +4529,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>201901</v>
       </c>
@@ -4566,7 +4552,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>201901</v>
       </c>
@@ -4589,7 +4575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>201901</v>
       </c>
@@ -4612,7 +4598,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>201901</v>
       </c>
@@ -4635,7 +4621,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>201901</v>
       </c>
@@ -4658,7 +4644,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>201901</v>
       </c>
@@ -4681,7 +4667,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>201901</v>
       </c>
@@ -4704,7 +4690,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>201901</v>
       </c>
@@ -4727,7 +4713,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>201901</v>
       </c>
@@ -4750,7 +4736,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>201901</v>
       </c>
@@ -4773,7 +4759,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>201901</v>
       </c>
@@ -4796,7 +4782,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>201901</v>
       </c>
@@ -4819,7 +4805,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>201901</v>
       </c>
@@ -4842,7 +4828,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>201901</v>
       </c>
@@ -4865,7 +4851,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>201901</v>
       </c>
@@ -4888,7 +4874,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>201901</v>
       </c>
@@ -4911,7 +4897,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>201901</v>
       </c>
@@ -4934,7 +4920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>201901</v>
       </c>
@@ -4957,7 +4943,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>201901</v>
       </c>
@@ -4980,7 +4966,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>201901</v>
       </c>
@@ -5003,7 +4989,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>201901</v>
       </c>
@@ -5026,7 +5012,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>201901</v>
       </c>
@@ -5049,7 +5035,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>201901</v>
       </c>
@@ -5072,7 +5058,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>201901</v>
       </c>
@@ -5095,7 +5081,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>201901</v>
       </c>
@@ -5118,7 +5104,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>201901</v>
       </c>
@@ -5141,7 +5127,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>201901</v>
       </c>
@@ -5164,7 +5150,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>201901</v>
       </c>
@@ -5187,7 +5173,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>201901</v>
       </c>
@@ -5210,7 +5196,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>201901</v>
       </c>
@@ -5233,7 +5219,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>201901</v>
       </c>
@@ -5256,7 +5242,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>201901</v>
       </c>
@@ -5279,7 +5265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>201901</v>
       </c>
@@ -5302,7 +5288,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>201901</v>
       </c>
@@ -5325,7 +5311,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>201901</v>
       </c>
@@ -5348,7 +5334,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>201901</v>
       </c>
@@ -5371,7 +5357,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>201901</v>
       </c>
@@ -5394,7 +5380,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>201901</v>
       </c>
@@ -5417,7 +5403,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>201901</v>
       </c>
@@ -5440,7 +5426,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>201901</v>
       </c>
@@ -5463,7 +5449,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>201901</v>
       </c>
@@ -5486,7 +5472,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>201901</v>
       </c>
@@ -5509,7 +5495,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>201901</v>
       </c>
@@ -5532,7 +5518,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>201901</v>
       </c>
@@ -5555,7 +5541,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>201901</v>
       </c>
@@ -5578,7 +5564,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>201901</v>
       </c>
@@ -5601,7 +5587,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>201901</v>
       </c>
@@ -5624,7 +5610,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>201901</v>
       </c>
@@ -5647,7 +5633,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>201901</v>
       </c>
@@ -5670,7 +5656,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>201901</v>
       </c>
@@ -5693,7 +5679,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>201901</v>
       </c>
@@ -5716,7 +5702,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>201901</v>
       </c>
@@ -5739,7 +5725,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>201901</v>
       </c>
@@ -5762,7 +5748,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>201903</v>
       </c>
@@ -5785,7 +5771,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>201903</v>
       </c>
@@ -5808,7 +5794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>201903</v>
       </c>
@@ -5831,7 +5817,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>201903</v>
       </c>
@@ -5854,7 +5840,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>201903</v>
       </c>
@@ -5877,7 +5863,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>201903</v>
       </c>
@@ -5900,7 +5886,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>201903</v>
       </c>
@@ -5923,7 +5909,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>201903</v>
       </c>
@@ -5946,7 +5932,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>201903</v>
       </c>
@@ -5969,7 +5955,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>201903</v>
       </c>
@@ -5992,7 +5978,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>201903</v>
       </c>
@@ -6015,7 +6001,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>201903</v>
       </c>
@@ -6038,7 +6024,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>201903</v>
       </c>
@@ -6061,7 +6047,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>201903</v>
       </c>
@@ -6084,7 +6070,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>201903</v>
       </c>
@@ -6107,7 +6093,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>201903</v>
       </c>
@@ -6130,7 +6116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>201903</v>
       </c>
@@ -6153,7 +6139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>201903</v>
       </c>
@@ -6176,7 +6162,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>201903</v>
       </c>
@@ -6199,7 +6185,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>201903</v>
       </c>
@@ -6222,7 +6208,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>201903</v>
       </c>
@@ -6245,7 +6231,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>201903</v>
       </c>
@@ -6268,7 +6254,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>201903</v>
       </c>
@@ -6291,7 +6277,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>201903</v>
       </c>
@@ -6314,7 +6300,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>201903</v>
       </c>
@@ -6337,7 +6323,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>201903</v>
       </c>
@@ -6360,7 +6346,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>201903</v>
       </c>
@@ -6383,7 +6369,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>201903</v>
       </c>
@@ -6406,7 +6392,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>201903</v>
       </c>
@@ -6429,7 +6415,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>201903</v>
       </c>
@@ -6452,7 +6438,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>201903</v>
       </c>
@@ -6475,7 +6461,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>201903</v>
       </c>
@@ -6498,7 +6484,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>201903</v>
       </c>
@@ -6521,7 +6507,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>201903</v>
       </c>
@@ -6544,7 +6530,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>201903</v>
       </c>
@@ -6567,7 +6553,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>201903</v>
       </c>
@@ -6590,7 +6576,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>201903</v>
       </c>
@@ -6613,7 +6599,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>201903</v>
       </c>
@@ -6636,7 +6622,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>201903</v>
       </c>
@@ -6659,7 +6645,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>201903</v>
       </c>
@@ -6682,7 +6668,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>202001</v>
       </c>
@@ -6705,7 +6691,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>202001</v>
       </c>
@@ -6728,7 +6714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>202001</v>
       </c>
@@ -6751,7 +6737,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>202001</v>
       </c>
@@ -6774,7 +6760,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>202001</v>
       </c>
@@ -6797,7 +6783,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>202001</v>
       </c>
@@ -6820,7 +6806,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>202001</v>
       </c>
@@ -6843,7 +6829,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>202001</v>
       </c>
@@ -6866,7 +6852,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>202001</v>
       </c>
@@ -6889,7 +6875,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>202001</v>
       </c>
@@ -6912,7 +6898,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>202001</v>
       </c>
@@ -6935,7 +6921,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>202001</v>
       </c>
@@ -6958,7 +6944,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>202001</v>
       </c>
@@ -6981,7 +6967,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>202001</v>
       </c>
@@ -7004,7 +6990,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>202001</v>
       </c>
@@ -7027,7 +7013,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>202001</v>
       </c>
@@ -7050,7 +7036,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>202001</v>
       </c>
@@ -7073,7 +7059,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>202001</v>
       </c>
@@ -7096,7 +7082,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>202001</v>
       </c>
@@ -7119,7 +7105,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>202001</v>
       </c>
@@ -7142,7 +7128,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>202001</v>
       </c>
@@ -7165,7 +7151,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>202001</v>
       </c>
@@ -7188,7 +7174,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>202001</v>
       </c>
@@ -7211,7 +7197,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>202001</v>
       </c>
@@ -7234,7 +7220,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>202001</v>
       </c>
@@ -7257,7 +7243,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>202001</v>
       </c>
@@ -7280,7 +7266,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>202001</v>
       </c>
@@ -7303,7 +7289,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202001</v>
       </c>
@@ -7326,7 +7312,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202001</v>
       </c>
@@ -7349,7 +7335,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>202001</v>
       </c>
@@ -7372,7 +7358,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>202001</v>
       </c>
@@ -7395,7 +7381,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>202001</v>
       </c>
@@ -7418,7 +7404,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>202001</v>
       </c>
@@ -7441,7 +7427,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>202001</v>
       </c>
@@ -7464,7 +7450,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>202001</v>
       </c>
@@ -7487,7 +7473,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>202001</v>
       </c>
@@ -7510,7 +7496,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>202001</v>
       </c>
@@ -7533,7 +7519,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>202001</v>
       </c>
@@ -7556,7 +7542,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>202001</v>
       </c>
@@ -7579,7 +7565,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>202001</v>
       </c>
@@ -7602,7 +7588,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>202001</v>
       </c>
@@ -7625,7 +7611,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>202001</v>
       </c>
@@ -7648,7 +7634,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>202001</v>
       </c>
@@ -7671,7 +7657,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>202001</v>
       </c>
@@ -7694,7 +7680,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>202001</v>
       </c>
@@ -7717,7 +7703,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>202001</v>
       </c>
@@ -7740,7 +7726,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>202001</v>
       </c>
@@ -7763,7 +7749,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>202001</v>
       </c>
@@ -7786,7 +7772,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>202001</v>
       </c>
@@ -7809,7 +7795,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>202001</v>
       </c>
@@ -7832,7 +7818,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>202001</v>
       </c>
@@ -7855,7 +7841,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>202001</v>
       </c>
@@ -7878,7 +7864,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>202001</v>
       </c>
@@ -7901,7 +7887,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>202001</v>
       </c>
@@ -7924,7 +7910,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>202001</v>
       </c>
@@ -7947,7 +7933,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>202001</v>
       </c>
@@ -7970,7 +7956,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>202001</v>
       </c>
@@ -7993,7 +7979,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>202001</v>
       </c>
@@ -8016,7 +8002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>202001</v>
       </c>
@@ -8039,7 +8025,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>202001</v>
       </c>
@@ -8062,7 +8048,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>202001</v>
       </c>
@@ -8085,7 +8071,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>202001</v>
       </c>
@@ -8108,7 +8094,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>202001</v>
       </c>
@@ -8131,7 +8117,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>202001</v>
       </c>
@@ -8154,7 +8140,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>202003</v>
       </c>
@@ -8177,7 +8163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>202003</v>
       </c>
@@ -8200,7 +8186,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>202003</v>
       </c>
@@ -8223,7 +8209,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>202003</v>
       </c>
@@ -8246,7 +8232,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>202003</v>
       </c>
@@ -8269,7 +8255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>202003</v>
       </c>
@@ -8292,7 +8278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>202003</v>
       </c>
@@ -8315,7 +8301,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>202003</v>
       </c>
@@ -8338,7 +8324,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>202003</v>
       </c>
@@ -8361,7 +8347,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>202003</v>
       </c>
@@ -8384,7 +8370,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>202003</v>
       </c>
@@ -8407,7 +8393,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>202003</v>
       </c>
@@ -8430,7 +8416,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>202003</v>
       </c>
@@ -8453,7 +8439,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>202003</v>
       </c>
@@ -8476,7 +8462,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>202003</v>
       </c>
@@ -8499,7 +8485,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>202003</v>
       </c>
@@ -8522,7 +8508,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>202003</v>
       </c>
@@ -8545,7 +8531,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>202003</v>
       </c>
@@ -8568,7 +8554,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>202003</v>
       </c>
@@ -8591,7 +8577,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>202003</v>
       </c>
@@ -8614,7 +8600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>202003</v>
       </c>
@@ -8637,7 +8623,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>202003</v>
       </c>
@@ -8660,7 +8646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>202003</v>
       </c>
@@ -8683,7 +8669,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>202003</v>
       </c>
@@ -8706,7 +8692,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>202003</v>
       </c>
@@ -8729,7 +8715,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>202003</v>
       </c>
@@ -8752,7 +8738,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>202003</v>
       </c>
@@ -8775,7 +8761,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>202003</v>
       </c>
@@ -8798,7 +8784,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>202003</v>
       </c>
@@ -8821,7 +8807,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>202003</v>
       </c>
@@ -8844,7 +8830,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>202003</v>
       </c>
@@ -8867,7 +8853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>202003</v>
       </c>
@@ -8890,7 +8876,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>202003</v>
       </c>
@@ -8913,7 +8899,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>202003</v>
       </c>
@@ -8936,7 +8922,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>202003</v>
       </c>
@@ -8959,7 +8945,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>202003</v>
       </c>
@@ -8982,7 +8968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>202003</v>
       </c>
@@ -9005,7 +8991,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>202003</v>
       </c>
@@ -9028,7 +9014,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>202003</v>
       </c>
@@ -9051,7 +9037,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>202003</v>
       </c>
@@ -9074,7 +9060,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>202003</v>
       </c>
@@ -9097,7 +9083,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>202003</v>
       </c>
@@ -9120,7 +9106,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>202003</v>
       </c>
@@ -9143,7 +9129,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>202003</v>
       </c>
@@ -9166,7 +9152,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>202003</v>
       </c>
@@ -9189,7 +9175,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>202003</v>
       </c>
@@ -9212,7 +9198,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>202003</v>
       </c>
@@ -9235,7 +9221,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>202003</v>
       </c>
@@ -9258,7 +9244,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>202003</v>
       </c>
@@ -9281,7 +9267,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>202003</v>
       </c>
@@ -9304,7 +9290,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>202003</v>
       </c>
@@ -9327,7 +9313,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>202003</v>
       </c>
@@ -9350,7 +9336,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>202003</v>
       </c>
@@ -9373,7 +9359,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>202003</v>
       </c>
@@ -9396,7 +9382,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>202003</v>
       </c>
@@ -9419,7 +9405,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>202003</v>
       </c>
@@ -9442,7 +9428,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>202101</v>
       </c>
@@ -9465,7 +9451,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>202101</v>
       </c>
@@ -9488,7 +9474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>202101</v>
       </c>
@@ -9511,7 +9497,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>202101</v>
       </c>
@@ -9534,7 +9520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>202101</v>
       </c>
@@ -9557,7 +9543,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>202101</v>
       </c>
@@ -9580,7 +9566,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>202101</v>
       </c>
@@ -9603,7 +9589,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>202101</v>
       </c>
@@ -9626,7 +9612,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>202101</v>
       </c>
@@ -9649,7 +9635,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>202101</v>
       </c>
@@ -9672,7 +9658,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>202101</v>
       </c>
@@ -9695,7 +9681,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>202101</v>
       </c>
@@ -9718,7 +9704,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>202101</v>
       </c>
@@ -9741,7 +9727,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>202101</v>
       </c>
@@ -9764,7 +9750,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>202101</v>
       </c>
@@ -9787,7 +9773,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>202101</v>
       </c>
@@ -9810,7 +9796,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>202101</v>
       </c>
@@ -9833,7 +9819,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>202101</v>
       </c>
@@ -9856,7 +9842,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>202101</v>
       </c>
@@ -9879,7 +9865,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>202101</v>
       </c>
@@ -9902,7 +9888,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>202101</v>
       </c>
@@ -9925,7 +9911,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>202101</v>
       </c>
@@ -9948,7 +9934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>202101</v>
       </c>
@@ -9971,7 +9957,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>202101</v>
       </c>
@@ -9994,7 +9980,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>202101</v>
       </c>
@@ -10017,7 +10003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>202101</v>
       </c>
@@ -10040,7 +10026,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>202101</v>
       </c>
@@ -10063,7 +10049,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>202101</v>
       </c>
@@ -10086,7 +10072,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>202101</v>
       </c>
@@ -10109,7 +10095,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>202101</v>
       </c>
@@ -10132,7 +10118,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>202101</v>
       </c>
@@ -10155,7 +10141,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>202101</v>
       </c>
@@ -10178,7 +10164,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>202101</v>
       </c>
@@ -10201,7 +10187,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>202101</v>
       </c>
@@ -10224,7 +10210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>202101</v>
       </c>
@@ -10247,7 +10233,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>202101</v>
       </c>
@@ -10270,7 +10256,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>202101</v>
       </c>
@@ -10293,7 +10279,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>202101</v>
       </c>
@@ -10316,7 +10302,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>202101</v>
       </c>
@@ -10339,7 +10325,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>202101</v>
       </c>
@@ -10362,7 +10348,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>202101</v>
       </c>
@@ -10385,7 +10371,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>202101</v>
       </c>
@@ -10408,7 +10394,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>202101</v>
       </c>
@@ -10431,7 +10417,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>202101</v>
       </c>
@@ -10454,7 +10440,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>202101</v>
       </c>
@@ -10477,7 +10463,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>202101</v>
       </c>
@@ -10500,7 +10486,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>202101</v>
       </c>
@@ -10523,7 +10509,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>202101</v>
       </c>
@@ -10546,7 +10532,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>202101</v>
       </c>
@@ -10569,7 +10555,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>202101</v>
       </c>
@@ -10592,7 +10578,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>202101</v>
       </c>
@@ -10615,7 +10601,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>202101</v>
       </c>
@@ -10638,7 +10624,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>202101</v>
       </c>
@@ -10661,7 +10647,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>202101</v>
       </c>
@@ -10684,7 +10670,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>202103</v>
       </c>
@@ -10707,7 +10693,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>202103</v>
       </c>
@@ -10730,7 +10716,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>202103</v>
       </c>
@@ -10753,7 +10739,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>202103</v>
       </c>
@@ -10776,7 +10762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>202103</v>
       </c>
@@ -10799,7 +10785,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>202103</v>
       </c>
@@ -10822,7 +10808,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>202103</v>
       </c>
@@ -10845,7 +10831,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>202103</v>
       </c>
@@ -10868,7 +10854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>202103</v>
       </c>
@@ -10891,7 +10877,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>202103</v>
       </c>
@@ -10914,7 +10900,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>202103</v>
       </c>
@@ -10937,7 +10923,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>202103</v>
       </c>
@@ -10960,7 +10946,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>202103</v>
       </c>
@@ -10983,7 +10969,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>202103</v>
       </c>
@@ -11006,7 +10992,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>202103</v>
       </c>
@@ -11029,7 +11015,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>202103</v>
       </c>
@@ -11052,7 +11038,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>202103</v>
       </c>
@@ -11075,7 +11061,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>202103</v>
       </c>
@@ -11098,7 +11084,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>202103</v>
       </c>
@@ -11121,7 +11107,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>202103</v>
       </c>
@@ -11144,7 +11130,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>202103</v>
       </c>
@@ -11167,7 +11153,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>202103</v>
       </c>
@@ -11190,7 +11176,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>202103</v>
       </c>
@@ -11213,7 +11199,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>202103</v>
       </c>
@@ -11236,7 +11222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>202103</v>
       </c>
@@ -11259,7 +11245,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>202103</v>
       </c>
@@ -11282,7 +11268,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>202103</v>
       </c>
@@ -11305,7 +11291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>202103</v>
       </c>
@@ -11328,7 +11314,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>202103</v>
       </c>
@@ -11351,7 +11337,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>202103</v>
       </c>
@@ -11374,7 +11360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>202103</v>
       </c>
@@ -11397,7 +11383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>202103</v>
       </c>
@@ -11420,7 +11406,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>202103</v>
       </c>
@@ -11443,7 +11429,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>202103</v>
       </c>
@@ -11466,7 +11452,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>202103</v>
       </c>
@@ -11489,7 +11475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>202103</v>
       </c>
@@ -11512,7 +11498,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>202103</v>
       </c>
@@ -11535,7 +11521,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>202103</v>
       </c>
@@ -11558,7 +11544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>202103</v>
       </c>
@@ -11581,7 +11567,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>202103</v>
       </c>
@@ -11604,7 +11590,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>202103</v>
       </c>
@@ -11627,7 +11613,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>202103</v>
       </c>
@@ -11650,7 +11636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>202103</v>
       </c>
@@ -11673,7 +11659,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>202103</v>
       </c>
@@ -11696,7 +11682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>202103</v>
       </c>
@@ -11719,7 +11705,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>202103</v>
       </c>
@@ -11742,7 +11728,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>202103</v>
       </c>
@@ -11765,7 +11751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>202103</v>
       </c>
@@ -11788,7 +11774,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>202103</v>
       </c>
@@ -11811,7 +11797,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>202103</v>
       </c>
@@ -11834,7 +11820,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>202103</v>
       </c>
@@ -11857,7 +11843,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>202103</v>
       </c>
@@ -11880,7 +11866,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>202103</v>
       </c>
@@ -11903,7 +11889,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>202103</v>
       </c>
@@ -11926,7 +11912,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>202103</v>
       </c>
@@ -11949,7 +11935,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>202103</v>
       </c>
@@ -11972,7 +11958,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>202103</v>
       </c>
@@ -11995,7 +11981,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>202103</v>
       </c>
@@ -12018,7 +12004,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>202103</v>
       </c>
@@ -12041,7 +12027,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>202103</v>
       </c>
@@ -12064,7 +12050,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>202103</v>
       </c>
@@ -12087,7 +12073,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>202103</v>
       </c>
@@ -12110,7 +12096,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>202103</v>
       </c>
@@ -12133,7 +12119,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>202103</v>
       </c>
@@ -12156,7 +12142,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>202103</v>
       </c>
@@ -12179,7 +12165,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>202201</v>
       </c>
@@ -12202,7 +12188,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>202201</v>
       </c>
@@ -12225,7 +12211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>202201</v>
       </c>
@@ -12248,7 +12234,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>202201</v>
       </c>
@@ -12271,7 +12257,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>202201</v>
       </c>
@@ -12294,7 +12280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>202201</v>
       </c>
@@ -12317,7 +12303,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>202201</v>
       </c>
@@ -12340,7 +12326,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>202201</v>
       </c>
@@ -12363,7 +12349,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>202201</v>
       </c>
@@ -12386,7 +12372,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>202201</v>
       </c>
@@ -12409,7 +12395,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>202201</v>
       </c>
@@ -12432,7 +12418,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>202201</v>
       </c>
@@ -12455,7 +12441,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>202201</v>
       </c>
@@ -12478,7 +12464,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>202201</v>
       </c>
@@ -12501,7 +12487,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>202201</v>
       </c>
@@ -12524,7 +12510,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>202201</v>
       </c>
@@ -12547,7 +12533,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>202201</v>
       </c>
@@ -12570,7 +12556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>202201</v>
       </c>
@@ -12593,7 +12579,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>202201</v>
       </c>
@@ -12616,7 +12602,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>202201</v>
       </c>
@@ -12639,7 +12625,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>202201</v>
       </c>
@@ -12662,7 +12648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>202201</v>
       </c>
@@ -12685,7 +12671,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>202201</v>
       </c>
@@ -12708,7 +12694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>202201</v>
       </c>
@@ -12731,7 +12717,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>202201</v>
       </c>
@@ -12754,7 +12740,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>202201</v>
       </c>
@@ -12777,7 +12763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>202201</v>
       </c>
@@ -12800,7 +12786,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>202201</v>
       </c>
@@ -12823,7 +12809,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>202201</v>
       </c>
@@ -12846,7 +12832,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>202201</v>
       </c>
@@ -12869,7 +12855,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>202201</v>
       </c>
@@ -12892,7 +12878,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>202201</v>
       </c>
@@ -12915,7 +12901,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>202201</v>
       </c>
@@ -12938,7 +12924,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>202201</v>
       </c>
@@ -12961,7 +12947,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>202201</v>
       </c>
@@ -12984,7 +12970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>202201</v>
       </c>
@@ -13007,7 +12993,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>202201</v>
       </c>
@@ -13030,7 +13016,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>202201</v>
       </c>
@@ -13053,7 +13039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>202201</v>
       </c>
@@ -13076,7 +13062,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>202201</v>
       </c>
@@ -13099,7 +13085,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>202201</v>
       </c>
@@ -13122,7 +13108,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>202201</v>
       </c>
@@ -13145,7 +13131,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>202201</v>
       </c>
@@ -13168,7 +13154,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>202201</v>
       </c>
@@ -13191,7 +13177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>202201</v>
       </c>
@@ -13214,7 +13200,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>202201</v>
       </c>
@@ -13237,7 +13223,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>202201</v>
       </c>
@@ -13260,7 +13246,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>202201</v>
       </c>
@@ -13283,7 +13269,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>202201</v>
       </c>
@@ -13306,7 +13292,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>202201</v>
       </c>
@@ -13329,7 +13315,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>202201</v>
       </c>
@@ -13352,7 +13338,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>202201</v>
       </c>
@@ -13375,7 +13361,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>202201</v>
       </c>
@@ -13398,7 +13384,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>202201</v>
       </c>
@@ -13421,7 +13407,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>202201</v>
       </c>
@@ -13444,7 +13430,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>202201</v>
       </c>
@@ -13467,7 +13453,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>202201</v>
       </c>
@@ -13490,7 +13476,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>202201</v>
       </c>
@@ -13513,7 +13499,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>202201</v>
       </c>
@@ -13536,7 +13522,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>202201</v>
       </c>
@@ -13559,7 +13545,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>202201</v>
       </c>
@@ -13582,7 +13568,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>202201</v>
       </c>
@@ -13605,7 +13591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>202201</v>
       </c>
@@ -13628,7 +13614,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>202201</v>
       </c>
@@ -13651,7 +13637,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>202201</v>
       </c>
@@ -13674,7 +13660,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>202201</v>
       </c>
@@ -13697,7 +13683,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>202201</v>
       </c>
@@ -13720,7 +13706,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>202201</v>
       </c>
@@ -13743,7 +13729,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>202201</v>
       </c>
@@ -13766,7 +13752,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>202201</v>
       </c>
@@ -13789,7 +13775,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>202201</v>
       </c>
@@ -13812,7 +13798,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>202201</v>
       </c>
@@ -13835,7 +13821,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>202201</v>
       </c>
@@ -13858,7 +13844,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>202201</v>
       </c>
@@ -13881,7 +13867,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>202201</v>
       </c>
@@ -13904,7 +13890,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>202201</v>
       </c>
@@ -13927,7 +13913,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>202201</v>
       </c>
@@ -13950,7 +13936,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>202201</v>
       </c>
@@ -13973,7 +13959,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>202201</v>
       </c>
@@ -13996,7 +13982,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>202201</v>
       </c>
@@ -14019,7 +14005,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>202201</v>
       </c>
@@ -14042,7 +14028,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>202201</v>
       </c>
@@ -14065,7 +14051,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>202203</v>
       </c>
@@ -14088,7 +14074,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>202203</v>
       </c>
@@ -14111,7 +14097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>202203</v>
       </c>
@@ -14134,7 +14120,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>202203</v>
       </c>
@@ -14157,7 +14143,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>202203</v>
       </c>
@@ -14180,7 +14166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>202203</v>
       </c>
@@ -14203,7 +14189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>202203</v>
       </c>
@@ -14226,7 +14212,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>202203</v>
       </c>
@@ -14249,7 +14235,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>202203</v>
       </c>
@@ -14272,7 +14258,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>202203</v>
       </c>
@@ -14295,7 +14281,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>202203</v>
       </c>
@@ -14318,7 +14304,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>202203</v>
       </c>
@@ -14341,7 +14327,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>202203</v>
       </c>
@@ -14364,7 +14350,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>202203</v>
       </c>
@@ -14387,7 +14373,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>202203</v>
       </c>
@@ -14410,7 +14396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>202203</v>
       </c>
@@ -14433,7 +14419,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>202203</v>
       </c>
@@ -14456,7 +14442,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>202203</v>
       </c>
@@ -14479,7 +14465,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>202203</v>
       </c>
@@ -14502,7 +14488,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>202203</v>
       </c>
@@ -14525,7 +14511,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>202203</v>
       </c>
@@ -14548,7 +14534,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>202203</v>
       </c>
@@ -14571,7 +14557,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>202203</v>
       </c>
@@ -14594,7 +14580,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>202203</v>
       </c>
@@ -14617,7 +14603,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>202203</v>
       </c>
@@ -14640,7 +14626,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>202203</v>
       </c>
@@ -14663,7 +14649,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>202203</v>
       </c>
@@ -14686,7 +14672,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>202203</v>
       </c>
@@ -14709,7 +14695,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>202203</v>
       </c>
@@ -14732,7 +14718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>202203</v>
       </c>
@@ -14755,7 +14741,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>202203</v>
       </c>
@@ -14778,7 +14764,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>202203</v>
       </c>
@@ -14801,7 +14787,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>202203</v>
       </c>
@@ -14824,7 +14810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>202203</v>
       </c>
@@ -14847,7 +14833,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>202203</v>
       </c>
@@ -14870,7 +14856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>202203</v>
       </c>
@@ -14893,7 +14879,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>202203</v>
       </c>
@@ -14916,7 +14902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>202203</v>
       </c>
@@ -14939,7 +14925,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>202203</v>
       </c>
@@ -14962,7 +14948,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>202203</v>
       </c>
@@ -14985,7 +14971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>202203</v>
       </c>
@@ -15008,7 +14994,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>202203</v>
       </c>
@@ -15031,7 +15017,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>202203</v>
       </c>
@@ -15054,7 +15040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>202203</v>
       </c>
@@ -15077,7 +15063,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>202203</v>
       </c>
@@ -15100,7 +15086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>202203</v>
       </c>
@@ -15123,7 +15109,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>202203</v>
       </c>
@@ -15146,7 +15132,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>202203</v>
       </c>
@@ -15169,7 +15155,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>202203</v>
       </c>
@@ -15192,7 +15178,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>202203</v>
       </c>
@@ -15215,7 +15201,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>202203</v>
       </c>
@@ -15238,7 +15224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>202203</v>
       </c>
@@ -15261,7 +15247,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>202203</v>
       </c>
@@ -15284,7 +15270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>202203</v>
       </c>
@@ -15307,7 +15293,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>202203</v>
       </c>
@@ -15330,7 +15316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>202203</v>
       </c>
@@ -15353,7 +15339,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>202203</v>
       </c>
@@ -15376,7 +15362,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>202203</v>
       </c>
@@ -15399,7 +15385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>202203</v>
       </c>
@@ -15422,7 +15408,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>202203</v>
       </c>
@@ -15445,7 +15431,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>202203</v>
       </c>
@@ -15468,7 +15454,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>202203</v>
       </c>
@@ -15491,7 +15477,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>202203</v>
       </c>
@@ -15514,7 +15500,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>202203</v>
       </c>
@@ -15537,7 +15523,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>202203</v>
       </c>
@@ -15560,7 +15546,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>202203</v>
       </c>
@@ -15583,7 +15569,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>202203</v>
       </c>
@@ -15606,7 +15592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>202203</v>
       </c>
@@ -15629,7 +15615,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>202203</v>
       </c>
@@ -15652,7 +15638,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>202203</v>
       </c>
@@ -15675,7 +15661,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>202203</v>
       </c>
@@ -15698,7 +15684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>202203</v>
       </c>
@@ -15721,7 +15707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>202203</v>
       </c>
@@ -15744,7 +15730,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>202203</v>
       </c>
@@ -15767,7 +15753,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>202203</v>
       </c>
@@ -15790,7 +15776,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>202203</v>
       </c>
@@ -15813,7 +15799,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>202203</v>
       </c>
@@ -15836,7 +15822,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>202203</v>
       </c>
@@ -15859,7 +15845,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>202203</v>
       </c>
@@ -15882,7 +15868,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>202203</v>
       </c>
@@ -15905,7 +15891,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>202203</v>
       </c>
@@ -15928,7 +15914,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>202203</v>
       </c>
@@ -15951,7 +15937,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>202203</v>
       </c>
@@ -15974,7 +15960,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>202203</v>
       </c>
@@ -15997,7 +15983,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>202203</v>
       </c>
@@ -16020,7 +16006,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>202203</v>
       </c>
@@ -16043,7 +16029,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>202203</v>
       </c>
@@ -16066,7 +16052,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>202203</v>
       </c>
@@ -16089,7 +16075,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>202203</v>
       </c>
@@ -16112,7 +16098,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>202203</v>
       </c>
@@ -16135,7 +16121,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>202203</v>
       </c>
@@ -16158,7 +16144,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>202203</v>
       </c>
@@ -16181,7 +16167,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>202203</v>
       </c>
@@ -16204,7 +16190,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>202203</v>
       </c>
@@ -16227,7 +16213,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>202203</v>
       </c>
@@ -16250,7 +16236,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>202301</v>
       </c>
@@ -16273,7 +16259,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>202301</v>
       </c>
@@ -16296,7 +16282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>202301</v>
       </c>
@@ -16319,7 +16305,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>202301</v>
       </c>
@@ -16342,7 +16328,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>202301</v>
       </c>
@@ -16365,7 +16351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>202301</v>
       </c>
@@ -16388,7 +16374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>202301</v>
       </c>
@@ -16411,7 +16397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>202301</v>
       </c>
@@ -16434,7 +16420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>202301</v>
       </c>
@@ -16457,7 +16443,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>202301</v>
       </c>
@@ -16480,7 +16466,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>202301</v>
       </c>
@@ -16503,7 +16489,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>202301</v>
       </c>
@@ -16526,7 +16512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>202301</v>
       </c>
@@ -16549,7 +16535,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>202301</v>
       </c>
@@ -16572,7 +16558,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>202301</v>
       </c>
@@ -16595,7 +16581,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>202301</v>
       </c>
@@ -16618,7 +16604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>202301</v>
       </c>
@@ -16641,7 +16627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>202301</v>
       </c>
@@ -16664,7 +16650,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>202301</v>
       </c>
@@ -16687,7 +16673,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>202301</v>
       </c>
@@ -16710,7 +16696,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>202301</v>
       </c>
@@ -16733,7 +16719,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>202301</v>
       </c>
@@ -16756,7 +16742,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>202301</v>
       </c>
@@ -16779,7 +16765,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>202301</v>
       </c>
@@ -16802,7 +16788,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>202301</v>
       </c>
@@ -16825,7 +16811,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>202301</v>
       </c>
@@ -16848,7 +16834,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>202301</v>
       </c>
@@ -16871,7 +16857,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>202301</v>
       </c>
@@ -16894,7 +16880,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>202301</v>
       </c>
@@ -16917,7 +16903,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>202301</v>
       </c>
@@ -16940,7 +16926,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>202301</v>
       </c>
@@ -16963,7 +16949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>202301</v>
       </c>
@@ -16986,7 +16972,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>202301</v>
       </c>
@@ -17009,7 +16995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>202301</v>
       </c>
@@ -17032,7 +17018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>202301</v>
       </c>
@@ -17055,7 +17041,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>202301</v>
       </c>
@@ -17078,7 +17064,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>202301</v>
       </c>
@@ -17101,7 +17087,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>202301</v>
       </c>
@@ -17124,7 +17110,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>202301</v>
       </c>
@@ -17147,7 +17133,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>202301</v>
       </c>
@@ -17170,7 +17156,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>202301</v>
       </c>
@@ -17193,7 +17179,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>202301</v>
       </c>
@@ -17216,7 +17202,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>202301</v>
       </c>
@@ -17239,7 +17225,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>202301</v>
       </c>
@@ -17262,7 +17248,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>202301</v>
       </c>
@@ -17285,7 +17271,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>202301</v>
       </c>
@@ -17308,7 +17294,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>202301</v>
       </c>
@@ -17331,7 +17317,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>202301</v>
       </c>
@@ -17354,7 +17340,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>202301</v>
       </c>
@@ -17377,7 +17363,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>202301</v>
       </c>
@@ -17400,7 +17386,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>202301</v>
       </c>
@@ -17423,7 +17409,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>202301</v>
       </c>
@@ -17446,7 +17432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>202301</v>
       </c>
@@ -17469,7 +17455,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>202301</v>
       </c>
@@ -17492,7 +17478,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>202301</v>
       </c>
@@ -17515,7 +17501,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>202301</v>
       </c>
@@ -17538,7 +17524,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>202301</v>
       </c>
@@ -17561,7 +17547,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>202301</v>
       </c>
@@ -17584,7 +17570,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>202301</v>
       </c>
@@ -17607,7 +17593,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>202301</v>
       </c>
@@ -17630,7 +17616,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>202301</v>
       </c>
@@ -17653,7 +17639,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>202301</v>
       </c>
@@ -17676,7 +17662,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>202301</v>
       </c>
@@ -17699,7 +17685,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>202301</v>
       </c>
@@ -17722,7 +17708,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>202301</v>
       </c>
@@ -17745,7 +17731,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>202301</v>
       </c>
@@ -17768,7 +17754,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>202301</v>
       </c>
@@ -17791,7 +17777,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>202301</v>
       </c>
@@ -17814,7 +17800,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>202301</v>
       </c>
@@ -17837,7 +17823,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>202301</v>
       </c>
@@ -17860,7 +17846,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>202301</v>
       </c>
@@ -17883,7 +17869,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>202301</v>
       </c>
@@ -17906,7 +17892,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>202301</v>
       </c>
@@ -17929,7 +17915,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>202301</v>
       </c>
@@ -17952,7 +17938,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>202301</v>
       </c>
@@ -17975,7 +17961,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>202301</v>
       </c>
@@ -17998,7 +17984,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>202303</v>
       </c>
@@ -18021,7 +18007,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>202303</v>
       </c>
@@ -18044,7 +18030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>202303</v>
       </c>
@@ -18067,7 +18053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>202303</v>
       </c>
@@ -18090,7 +18076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>202303</v>
       </c>
@@ -18113,7 +18099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>202303</v>
       </c>
@@ -18136,7 +18122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>202303</v>
       </c>
@@ -18159,7 +18145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>202303</v>
       </c>
@@ -18182,7 +18168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>202303</v>
       </c>
@@ -18205,7 +18191,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>202303</v>
       </c>
@@ -18228,7 +18214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>202303</v>
       </c>
@@ -18251,7 +18237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>202303</v>
       </c>
@@ -18274,7 +18260,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>202303</v>
       </c>
@@ -18297,7 +18283,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>202303</v>
       </c>
@@ -18320,7 +18306,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>202303</v>
       </c>
@@ -18343,7 +18329,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>202303</v>
       </c>
@@ -18366,7 +18352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>202303</v>
       </c>
@@ -18389,7 +18375,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>202303</v>
       </c>
@@ -18412,7 +18398,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>202303</v>
       </c>
@@ -18435,7 +18421,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>202303</v>
       </c>
@@ -18458,7 +18444,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>202303</v>
       </c>
@@ -18481,7 +18467,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>202303</v>
       </c>
@@ -18504,7 +18490,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>202303</v>
       </c>
@@ -18527,7 +18513,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>202303</v>
       </c>
@@ -18547,7 +18533,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>202303</v>
       </c>
@@ -18570,7 +18556,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>202303</v>
       </c>
@@ -18593,7 +18579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>202303</v>
       </c>
@@ -18616,7 +18602,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>202303</v>
       </c>
@@ -18639,7 +18625,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>202303</v>
       </c>
@@ -18662,7 +18648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>202303</v>
       </c>
@@ -18685,7 +18671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>202303</v>
       </c>
@@ -18708,7 +18694,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>202303</v>
       </c>
@@ -18731,7 +18717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>202303</v>
       </c>
@@ -18754,7 +18740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>202303</v>
       </c>
@@ -18777,7 +18763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>202303</v>
       </c>
@@ -18800,7 +18786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>202303</v>
       </c>
@@ -18823,7 +18809,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>202303</v>
       </c>
@@ -18846,7 +18832,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>202303</v>
       </c>
@@ -18866,7 +18852,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>202303</v>
       </c>
@@ -18889,7 +18875,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>202303</v>
       </c>
@@ -18912,7 +18898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>202303</v>
       </c>
@@ -18935,7 +18921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>202303</v>
       </c>
@@ -18958,7 +18944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>202303</v>
       </c>
@@ -18981,7 +18967,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>202303</v>
       </c>
@@ -19004,7 +18990,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>202303</v>
       </c>
@@ -19027,7 +19013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>202303</v>
       </c>
@@ -19050,7 +19036,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>202303</v>
       </c>
@@ -19073,7 +19059,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>202303</v>
       </c>
@@ -19096,7 +19082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>202303</v>
       </c>
@@ -19119,7 +19105,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>202303</v>
       </c>
@@ -19142,7 +19128,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>202303</v>
       </c>
@@ -19165,7 +19151,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>202303</v>
       </c>
@@ -19188,7 +19174,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>202303</v>
       </c>
@@ -19211,7 +19197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>202303</v>
       </c>
@@ -19234,7 +19220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>202303</v>
       </c>
@@ -19257,7 +19243,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>202303</v>
       </c>
@@ -19280,7 +19266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>202303</v>
       </c>
@@ -19303,7 +19289,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>202303</v>
       </c>
@@ -19326,7 +19312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>202303</v>
       </c>
@@ -19349,7 +19335,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>202303</v>
       </c>
@@ -19372,7 +19358,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>202303</v>
       </c>
@@ -19395,7 +19381,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>202303</v>
       </c>
@@ -19418,7 +19404,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>202303</v>
       </c>
@@ -19441,7 +19427,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>202303</v>
       </c>
@@ -19464,7 +19450,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>202303</v>
       </c>
@@ -19487,7 +19473,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>202303</v>
       </c>
@@ -19510,7 +19496,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>202303</v>
       </c>
@@ -19533,7 +19519,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>202303</v>
       </c>
@@ -19556,7 +19542,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>202303</v>
       </c>
@@ -19579,7 +19565,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>202303</v>
       </c>
@@ -19602,7 +19588,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>202303</v>
       </c>
@@ -19625,7 +19611,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>202303</v>
       </c>
@@ -19648,7 +19634,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>202303</v>
       </c>
@@ -19671,7 +19657,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>202303</v>
       </c>
@@ -19694,7 +19680,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>202303</v>
       </c>
@@ -19717,7 +19703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>202303</v>
       </c>
@@ -19741,8 +19727,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G743">
-    <sortState ref="A2:G743">
+  <autoFilter ref="A1:G743" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G743">
       <sortCondition ref="A2:A7297"/>
       <sortCondition ref="F2:F7297"/>
       <sortCondition ref="G2:G7297"/>
@@ -19752,15 +19738,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>425</v>
       </c>
